--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -50,6 +50,39 @@
   </si>
   <si>
     <t>Thứ 4 27/3/2019</t>
+  </si>
+  <si>
+    <t>Màn hình :</t>
+  </si>
+  <si>
+    <t>1/ Login + Register + Forgot,change password</t>
+  </si>
+  <si>
+    <t>2/ Màn hình tạo tin đăng.</t>
+  </si>
+  <si>
+    <t>3/ Màn hình tạo user</t>
+  </si>
+  <si>
+    <t>4/ Màn hình công việc</t>
+  </si>
+  <si>
+    <t>5/ Màn hình feedback</t>
+  </si>
+  <si>
+    <t>Tuần 2</t>
+  </si>
+  <si>
+    <t>Chuyển đổi sang file aspx của màn hình 1/</t>
+  </si>
+  <si>
+    <t>Chuyển đổi sang file aspx của màn hình 2/</t>
+  </si>
+  <si>
+    <t>Chuyển đổi sang file aspx của màn hình 4/ + 5/</t>
+  </si>
+  <si>
+    <t>Thứ 4, 3/4/2019</t>
   </si>
 </sst>
 </file>
@@ -60,19 +93,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,11 +124,97 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -104,23 +223,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -419,69 +553,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="36.75" customWidth="1"/>
+    <col min="5" max="5" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="4"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -76,13 +76,13 @@
     <t>Chuyển đổi sang file aspx của màn hình 1/</t>
   </si>
   <si>
-    <t>Chuyển đổi sang file aspx của màn hình 2/</t>
-  </si>
-  <si>
-    <t>Chuyển đổi sang file aspx của màn hình 4/ + 5/</t>
-  </si>
-  <si>
     <t>Thứ 4, 3/4/2019</t>
+  </si>
+  <si>
+    <t>Chuyển đổi sang file aspx của màn hình 2/ + 5/</t>
+  </si>
+  <si>
+    <t>Chuyển đổi sang file aspx của màn hình 3/ + 4/</t>
   </si>
 </sst>
 </file>
@@ -228,12 +228,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -244,6 +238,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,10 +573,10 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
@@ -585,21 +585,21 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="14"/>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -611,12 +611,12 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="14"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -629,56 +629,56 @@
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>22</v>
+      <c r="E6" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="6"/>
+      <c r="C23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -73,16 +73,16 @@
     <t>Tuần 2</t>
   </si>
   <si>
-    <t>Chuyển đổi sang file aspx của màn hình 1/</t>
-  </si>
-  <si>
     <t>Thứ 4, 3/4/2019</t>
   </si>
   <si>
     <t>Chuyển đổi sang file aspx của màn hình 2/ + 5/</t>
   </si>
   <si>
-    <t>Chuyển đổi sang file aspx của màn hình 3/ + 4/</t>
+    <t>Chuyển đổi sang file aspx của màn hình 1/ + 3/</t>
+  </si>
+  <si>
+    <t>Chuyển đổi sang file aspx của màn hình  4/</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -630,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">

--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -83,6 +83,21 @@
   </si>
   <si>
     <t>Chuyển đổi sang file aspx của màn hình  4/</t>
+  </si>
+  <si>
+    <t>Tuần 3</t>
+  </si>
+  <si>
+    <t>Validate các màn hình 4/</t>
+  </si>
+  <si>
+    <t>Validate các màn hình 2/ + 5/</t>
+  </si>
+  <si>
+    <t>Validate các màn hình 1/ + 3/</t>
+  </si>
+  <si>
+    <t>Thứ 4, 10/4/2019</t>
   </si>
 </sst>
 </file>
@@ -105,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +145,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -223,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -244,6 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,9 +588,10 @@
     <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="4" max="4" width="36.75" customWidth="1"/>
     <col min="5" max="5" width="40.375" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -580,8 +603,11 @@
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -594,8 +620,11 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -606,8 +635,11 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -618,8 +650,11 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -629,14 +664,17 @@
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -646,14 +684,14 @@
       <c r="C11" s="4"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
@@ -661,7 +699,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
         <v>16</v>
@@ -669,7 +707,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>17</v>

--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -98,6 +98,39 @@
   </si>
   <si>
     <t>Thứ 4, 10/4/2019</t>
+  </si>
+  <si>
+    <t>Task tuần 4:</t>
+  </si>
+  <si>
+    <t>1/ Chức năng tìm kiếm</t>
+  </si>
+  <si>
+    <t>2/ Chức năng Login</t>
+  </si>
+  <si>
+    <t>3/ Chức năng register</t>
+  </si>
+  <si>
+    <t>4/ Kết nối DB</t>
+  </si>
+  <si>
+    <t>Tuần 4</t>
+  </si>
+  <si>
+    <t>2/</t>
+  </si>
+  <si>
+    <t>3/</t>
+  </si>
+  <si>
+    <t>4/ + 1/</t>
+  </si>
+  <si>
+    <t>tìm kiếm trong DB</t>
+  </si>
+  <si>
+    <t>Chủ nhật 5/5/2019</t>
   </si>
 </sst>
 </file>
@@ -120,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,13 +174,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,35 +209,22 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
+      <left style="thin">
+        <color theme="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -206,24 +232,13 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FFFF0000"/>
       </left>
       <right/>
@@ -233,31 +248,43 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color rgb="FFFF0000"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,6 +292,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -575,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F23"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -589,29 +625,33 @@
     <col min="4" max="4" width="36.75" customWidth="1"/>
     <col min="5" max="5" width="40.375" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -623,12 +663,15 @@
       <c r="F3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="6"/>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -638,12 +681,15 @@
       <c r="F4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="6"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -653,8 +699,11 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -664,58 +713,100 @@
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="G6" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="8"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C23" s="4"/>
     </row>
   </sheetData>

--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -286,12 +286,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -302,6 +296,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +633,10 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
@@ -651,7 +651,7 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -671,7 +671,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="16"/>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="16"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -730,79 +730,79 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -131,6 +131,48 @@
   </si>
   <si>
     <t>Chủ nhật 5/5/2019</t>
+  </si>
+  <si>
+    <t>Task tuan 5 :</t>
+  </si>
+  <si>
+    <t>Chức năng của Applier</t>
+  </si>
+  <si>
+    <t>2/ List job + search job</t>
+  </si>
+  <si>
+    <t>1/ Edit profile + feed back</t>
+  </si>
+  <si>
+    <t>3/ Detail job + Apply job</t>
+  </si>
+  <si>
+    <t>Tuần 5</t>
+  </si>
+  <si>
+    <t>Thứ 5 23/5/2019</t>
+  </si>
+  <si>
+    <t>Chức năng của Supplier</t>
+  </si>
+  <si>
+    <t>Chức năng của Admin</t>
+  </si>
+  <si>
+    <t>4/ Manage Post (list, search, detail, add, update, delete,paging)</t>
+  </si>
+  <si>
+    <t>5/ Manage User( list, search, add,update, delete,paging)</t>
+  </si>
+  <si>
+    <t>Chức năng Applier (1,2,3)</t>
+  </si>
+  <si>
+    <t>Chức năng Supplier (4)</t>
+  </si>
+  <si>
+    <t>Chức năng Admin(5)</t>
   </si>
 </sst>
 </file>
@@ -186,12 +228,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -248,15 +290,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FFFF0000"/>
       </right>
@@ -275,11 +308,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -290,18 +422,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,32 +749,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="36.75" customWidth="1"/>
     <col min="5" max="5" width="40.375" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
@@ -646,12 +785,15 @@
       <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -666,12 +808,15 @@
       <c r="G3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="18"/>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -684,12 +829,15 @@
       <c r="G4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="18"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -702,8 +850,11 @@
       <c r="G5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -719,17 +870,20 @@
       <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -739,7 +893,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="6" t="s">
         <v>14</v>
@@ -747,7 +901,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
         <v>15</v>
@@ -755,7 +909,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
         <v>16</v>
@@ -763,7 +917,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>17</v>
@@ -771,43 +925,82 @@
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="4"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
